--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Framework\AbekaAutomationFW\src\main\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Automation/AbekaTemp/QA-Automation/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ACA218-0CDD-F94F-B0A7-ACC5A9750B8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="9380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,7 +86,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -362,20 +363,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -383,7 +384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,9 +392,25 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Automation/AbekaTemp/QA-Automation/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ACA218-0CDD-F94F-B0A7-ACC5A9750B8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5064547D-C43F-2D43-8040-B3A2F64E8A4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="9380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="9380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Credentials" sheetId="1" r:id="rId1"/>
+    <sheet name="ParentCredentials" sheetId="1" r:id="rId1"/>
+    <sheet name="StudentCredentials" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>rcg@pcci.edu</t>
   </si>
@@ -37,6 +38,9 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>syed.rcg</t>
   </si>
 </sst>
 </file>
@@ -364,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -392,26 +396,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50012846-BBBE-8F49-8572-8B537A72021A}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Automation/AbekaTemp/QA-Automation/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5064547D-C43F-2D43-8040-B3A2F64E8A4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B812A-E8C0-7244-8437-939CCFCACE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="9380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>rcg@pcci.edu</t>
   </si>
@@ -41,15 +41,28 @@
   </si>
   <si>
     <t>syed.rcg</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>Hello, RCG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -82,11 +95,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,32 +382,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -406,7 +426,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50012846-BBBE-8F49-8572-8B537A72021A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -414,15 +434,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Automation/AbekaTemp/QA-Automation/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B812A-E8C0-7244-8437-939CCFCACE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68BB131-1A7D-EF4C-A6C4-8AEF49989CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="9380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="9380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParentCredentials" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>rcg@pcci.edu</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>Hello, RCG</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>RCG Testing</t>
   </si>
 </sst>
 </file>
@@ -382,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -394,7 +400,7 @@
     <col min="2" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -404,8 +410,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,6 +423,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -426,15 +438,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50012846-BBBE-8F49-8572-8B537A72021A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -444,8 +456,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -455,5 +470,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Automation/AbekaTemp/QA-Automation/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68BB131-1A7D-EF4C-A6C4-8AEF49989CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCFB5E0-16ED-E149-A04C-66E07BE1F0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="9380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParentCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="StudentCredentials" sheetId="2" r:id="rId2"/>
+    <sheet name="GradeOneStudentCredentials" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>rcg@pcci.edu</t>
   </si>
@@ -53,6 +54,21 @@
   </si>
   <si>
     <t>RCG Testing</t>
+  </si>
+  <si>
+    <t>Password@123</t>
+  </si>
+  <si>
+    <t>AutoGoHlE_208</t>
+  </si>
+  <si>
+    <t>AutoVPGad_263</t>
+  </si>
+  <si>
+    <t>AutoglwqZ_839</t>
+  </si>
+  <si>
+    <t>AutoiEIjf_985</t>
   </si>
 </sst>
 </file>
@@ -390,14 +406,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -441,10 +458,16 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -466,6 +489,69 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903AAD5F-E2CA-8F41-81A5-DCE49C6E583F}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -3,23 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Automation/AbekaTemp/QA-Automation/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCFB5E0-16ED-E149-A04C-66E07BE1F0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C153E6-E2A9-6641-BA71-D7D9E158640C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParentCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="StudentCredentials" sheetId="2" r:id="rId2"/>
     <sheet name="GradeOneStudentCredentials" sheetId="3" r:id="rId3"/>
+    <sheet name="Grade4StudentCredentials" sheetId="4" r:id="rId4"/>
+    <sheet name="Grade9StudentCredentials" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>rcg@pcci.edu</t>
   </si>
@@ -69,13 +71,23 @@
   </si>
   <si>
     <t>AutoiEIjf_985</t>
+  </si>
+  <si>
+    <t>Auto2021_07_16_01_25_46_129</t>
+  </si>
+  <si>
+    <t>Auto2021_07_16_01_33_33_468</t>
+  </si>
+  <si>
+    <t>Auto20210719181533106</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,9 +424,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -463,10 +475,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -501,14 +513,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903AAD5F-E2CA-8F41-81A5-DCE49C6E583F}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -558,4 +570,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F814710-126C-F845-8A8F-5D817919A993}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.5" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D1542F-B48A-6941-87AE-0D73394C5070}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.13671875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Automation/AbekaTemp/QA-Automation/src/main/resources/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/QA-Automation/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C153E6-E2A9-6641-BA71-D7D9E158640C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF62443-2152-0049-98EF-0B785137F07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParentCredentials" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="GradeOneStudentCredentials" sheetId="3" r:id="rId3"/>
     <sheet name="Grade4StudentCredentials" sheetId="4" r:id="rId4"/>
     <sheet name="Grade9StudentCredentials" sheetId="5" r:id="rId5"/>
+    <sheet name="Grade12StudentCredentials" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>rcg@pcci.edu</t>
   </si>
@@ -86,8 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,14 +419,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.1640625" collapsed="true"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -462,6 +462,7 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -470,15 +471,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.83203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -519,8 +520,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -582,7 +583,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="30.5" collapsed="false"/>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -622,15 +623,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D1542F-B48A-6941-87AE-0D73394C5070}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.13671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -647,12 +648,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D2451B-41A5-4E47-B2CB-B10FA92DFE7E}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/QA-Automation/src/main/resources/testData/"/>
     </mc:Choice>
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>rcg@pcci.edu</t>
   </si>
@@ -81,13 +81,17 @@
   </si>
   <si>
     <t>Auto20210719181533106</t>
+  </si>
+  <si>
+    <t>Auto20210827004426713</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,9 +428,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -476,10 +480,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -520,8 +524,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -583,7 +587,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.5" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -631,7 +635,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.1640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -670,6 +674,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.13671875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -685,6 +692,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/QA-Automation/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF62443-2152-0049-98EF-0B785137F07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9EF56B-875C-614A-A97B-85CD295DFBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParentCredentials" sheetId="1" r:id="rId1"/>
@@ -30,17 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
-  <si>
-    <t>rcg@pcci.edu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>RCG1234</t>
   </si>
   <si>
-    <t>UserName</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -50,15 +44,9 @@
     <t>UserId</t>
   </si>
   <si>
-    <t>Hello, RCG</t>
-  </si>
-  <si>
     <t>Signature</t>
   </si>
   <si>
-    <t>RCG Testing</t>
-  </si>
-  <si>
     <t>Password@123</t>
   </si>
   <si>
@@ -84,6 +72,21 @@
   </si>
   <si>
     <t>Auto20210827004426713</t>
+  </si>
+  <si>
+    <t>CustomerNumber</t>
+  </si>
+  <si>
+    <t>rcg+27583643@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27583643</t>
+  </si>
+  <si>
+    <t>Joe Customer</t>
+  </si>
+  <si>
+    <t>27583643</t>
   </si>
 </sst>
 </file>
@@ -420,51 +423,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.1640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.13671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -472,40 +472,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50012846-BBBE-8F49-8572-8B537A72021A}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="7.83203125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.83203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -516,10 +512,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903AAD5F-E2CA-8F41-81A5-DCE49C6E583F}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -528,47 +524,44 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -579,45 +572,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F814710-126C-F845-8A8F-5D817919A993}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="30.5" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -627,10 +617,47 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D1542F-B48A-6941-87AE-0D73394C5070}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D2451B-41A5-4E47-B2CB-B10FA92DFE7E}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -638,66 +665,23 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="7.1640625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D2451B-41A5-4E47-B2CB-B10FA92DFE7E}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.13671875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/QA-Automation/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9EF56B-875C-614A-A97B-85CD295DFBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BCD31A-787D-CC45-8207-C03FDA5AFEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,63 +30,273 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="89">
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>Password@123</t>
+  </si>
+  <si>
+    <t>AutoGoHlE_208</t>
+  </si>
+  <si>
+    <t>AutoVPGad_263</t>
+  </si>
+  <si>
+    <t>AutoglwqZ_839</t>
+  </si>
+  <si>
+    <t>AutoiEIjf_985</t>
+  </si>
+  <si>
+    <t>Auto2021_07_16_01_25_46_129</t>
+  </si>
+  <si>
+    <t>Auto2021_07_16_01_33_33_468</t>
+  </si>
+  <si>
+    <t>Auto20210719181533106</t>
+  </si>
+  <si>
+    <t>Auto20210827004426713</t>
+  </si>
+  <si>
+    <t>CustomerNumber</t>
+  </si>
+  <si>
+    <t>Joe Customer</t>
+  </si>
+  <si>
+    <t>rcg+27584088@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584088</t>
+  </si>
+  <si>
+    <t>27584088</t>
+  </si>
+  <si>
+    <t>ATM202109292353</t>
+  </si>
+  <si>
+    <t>ATM202109292353 ATM202109292353</t>
+  </si>
+  <si>
+    <t>Grade 4</t>
+  </si>
+  <si>
+    <t>StudentName</t>
+  </si>
+  <si>
+    <t>ATM202109301304</t>
+  </si>
+  <si>
+    <t>ATM202109301304 ATM202109301304</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>rcg+27584121@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584121</t>
+  </si>
+  <si>
+    <t>27584121</t>
+  </si>
+  <si>
+    <t>rcg+27584122@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584122</t>
+  </si>
+  <si>
+    <t>27584122</t>
+  </si>
+  <si>
+    <t>ATM202109301405</t>
+  </si>
+  <si>
+    <t>ATM202109301405 ATM202109301405</t>
+  </si>
+  <si>
+    <t>syed.rcg</t>
+  </si>
   <si>
     <t>RCG1234</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>syed.rcg</t>
-  </si>
-  <si>
-    <t>UserId</t>
-  </si>
-  <si>
-    <t>Signature</t>
-  </si>
-  <si>
-    <t>Password@123</t>
-  </si>
-  <si>
-    <t>AutoGoHlE_208</t>
-  </si>
-  <si>
-    <t>AutoVPGad_263</t>
-  </si>
-  <si>
-    <t>AutoglwqZ_839</t>
-  </si>
-  <si>
-    <t>AutoiEIjf_985</t>
-  </si>
-  <si>
-    <t>Auto2021_07_16_01_25_46_129</t>
-  </si>
-  <si>
-    <t>Auto2021_07_16_01_33_33_468</t>
-  </si>
-  <si>
-    <t>Auto20210719181533106</t>
-  </si>
-  <si>
-    <t>Auto20210827004426713</t>
-  </si>
-  <si>
-    <t>CustomerNumber</t>
-  </si>
-  <si>
-    <t>rcg+27583643@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27583643</t>
-  </si>
-  <si>
-    <t>Joe Customer</t>
-  </si>
-  <si>
-    <t>27583643</t>
+    <t>rcg@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg+27584123@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584123</t>
+  </si>
+  <si>
+    <t>27584123</t>
+  </si>
+  <si>
+    <t>rcg+27584124@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584124</t>
+  </si>
+  <si>
+    <t>27584124</t>
+  </si>
+  <si>
+    <t>rcg+27584125@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584125</t>
+  </si>
+  <si>
+    <t>27584125</t>
+  </si>
+  <si>
+    <t>rcg+27584126@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584126</t>
+  </si>
+  <si>
+    <t>27584126</t>
+  </si>
+  <si>
+    <t>rcg+27584127@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584127</t>
+  </si>
+  <si>
+    <t>27584127</t>
+  </si>
+  <si>
+    <t>rcg+27584128@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584128</t>
+  </si>
+  <si>
+    <t>27584128</t>
+  </si>
+  <si>
+    <t>rcg+27584129@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584129</t>
+  </si>
+  <si>
+    <t>27584129</t>
+  </si>
+  <si>
+    <t>rcg+27584130@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584130</t>
+  </si>
+  <si>
+    <t>27584130</t>
+  </si>
+  <si>
+    <t>rcg+27584131@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584131</t>
+  </si>
+  <si>
+    <t>27584131</t>
+  </si>
+  <si>
+    <t>rcg+27584132@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584132</t>
+  </si>
+  <si>
+    <t>27584132</t>
+  </si>
+  <si>
+    <t>ATM202109301915</t>
+  </si>
+  <si>
+    <t>ATM202109301915 ATM202109301915</t>
+  </si>
+  <si>
+    <t>ATM202109301924</t>
+  </si>
+  <si>
+    <t>ATM202109301924 ATM202109301924</t>
+  </si>
+  <si>
+    <t>Grade 9</t>
+  </si>
+  <si>
+    <t>rcg+27584154@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584154</t>
+  </si>
+  <si>
+    <t>27584154</t>
+  </si>
+  <si>
+    <t>rcg+27584157@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584157</t>
+  </si>
+  <si>
+    <t>27584157</t>
+  </si>
+  <si>
+    <t>rcg+27584159@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584159</t>
+  </si>
+  <si>
+    <t>27584159</t>
+  </si>
+  <si>
+    <t>rcg+27584169@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584169</t>
+  </si>
+  <si>
+    <t>27584169</t>
+  </si>
+  <si>
+    <t>ATM202110011908</t>
+  </si>
+  <si>
+    <t>ATM202110011908 ATM202110011908</t>
+  </si>
+  <si>
+    <t>rcg+27584172@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584172</t>
+  </si>
+  <si>
+    <t>27584172</t>
+  </si>
+  <si>
+    <t>ATM202110011931</t>
+  </si>
+  <si>
+    <t>ATM202110011931 ATM202110011931</t>
   </si>
 </sst>
 </file>
@@ -94,7 +304,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +325,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,10 +354,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,85 +647,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.13671875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.45703125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>27583950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="D3:D4" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50012846-BBBE-8F49-8572-8B537A72021A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.83203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.94140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -515,7 +831,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -526,42 +842,42 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -575,7 +891,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -585,29 +901,29 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -630,21 +946,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -662,26 +978,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.1640625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/QA-Automation/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BCD31A-787D-CC45-8207-C03FDA5AFEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB76340A-1256-B643-9053-D1AE672F0766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParentCredentials" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>Password</t>
   </si>
@@ -74,60 +74,12 @@
     <t>Joe Customer</t>
   </si>
   <si>
-    <t>rcg+27584088@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584088</t>
-  </si>
-  <si>
-    <t>27584088</t>
-  </si>
-  <si>
-    <t>ATM202109292353</t>
-  </si>
-  <si>
-    <t>ATM202109292353 ATM202109292353</t>
-  </si>
-  <si>
-    <t>Grade 4</t>
-  </si>
-  <si>
     <t>StudentName</t>
   </si>
   <si>
-    <t>ATM202109301304</t>
-  </si>
-  <si>
-    <t>ATM202109301304 ATM202109301304</t>
-  </si>
-  <si>
     <t>Grade</t>
   </si>
   <si>
-    <t>rcg+27584121@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584121</t>
-  </si>
-  <si>
-    <t>27584121</t>
-  </si>
-  <si>
-    <t>rcg+27584122@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584122</t>
-  </si>
-  <si>
-    <t>27584122</t>
-  </si>
-  <si>
-    <t>ATM202109301405</t>
-  </si>
-  <si>
-    <t>ATM202109301405 ATM202109301405</t>
-  </si>
-  <si>
     <t>syed.rcg</t>
   </si>
   <si>
@@ -137,166 +89,97 @@
     <t>rcg@pcci.edu</t>
   </si>
   <si>
-    <t>rcg+27584123@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584123</t>
-  </si>
-  <si>
-    <t>27584123</t>
-  </si>
-  <si>
-    <t>rcg+27584124@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584124</t>
-  </si>
-  <si>
-    <t>27584124</t>
-  </si>
-  <si>
-    <t>rcg+27584125@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584125</t>
-  </si>
-  <si>
-    <t>27584125</t>
-  </si>
-  <si>
-    <t>rcg+27584126@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584126</t>
-  </si>
-  <si>
-    <t>27584126</t>
-  </si>
-  <si>
-    <t>rcg+27584127@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584127</t>
-  </si>
-  <si>
-    <t>27584127</t>
-  </si>
-  <si>
-    <t>rcg+27584128@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584128</t>
-  </si>
-  <si>
-    <t>27584128</t>
-  </si>
-  <si>
-    <t>rcg+27584129@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584129</t>
-  </si>
-  <si>
-    <t>27584129</t>
-  </si>
-  <si>
-    <t>rcg+27584130@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584130</t>
-  </si>
-  <si>
-    <t>27584130</t>
-  </si>
-  <si>
-    <t>rcg+27584131@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584131</t>
-  </si>
-  <si>
-    <t>27584131</t>
-  </si>
-  <si>
-    <t>rcg+27584132@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584132</t>
-  </si>
-  <si>
-    <t>27584132</t>
-  </si>
-  <si>
-    <t>ATM202109301915</t>
-  </si>
-  <si>
-    <t>ATM202109301915 ATM202109301915</t>
-  </si>
-  <si>
-    <t>ATM202109301924</t>
-  </si>
-  <si>
-    <t>ATM202109301924 ATM202109301924</t>
-  </si>
-  <si>
     <t>Grade 9</t>
   </si>
   <si>
-    <t>rcg+27584154@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584154</t>
-  </si>
-  <si>
-    <t>27584154</t>
-  </si>
-  <si>
-    <t>rcg+27584157@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584157</t>
-  </si>
-  <si>
-    <t>27584157</t>
-  </si>
-  <si>
-    <t>rcg+27584159@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584159</t>
-  </si>
-  <si>
-    <t>27584159</t>
-  </si>
-  <si>
-    <t>rcg+27584169@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584169</t>
-  </si>
-  <si>
-    <t>27584169</t>
-  </si>
-  <si>
-    <t>ATM202110011908</t>
-  </si>
-  <si>
-    <t>ATM202110011908 ATM202110011908</t>
-  </si>
-  <si>
-    <t>rcg+27584172@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584172</t>
-  </si>
-  <si>
-    <t>27584172</t>
-  </si>
-  <si>
     <t>ATM202110011931</t>
   </si>
   <si>
     <t>ATM202110011931 ATM202110011931</t>
+  </si>
+  <si>
+    <t>Grade 1 - Accredited</t>
+  </si>
+  <si>
+    <t>Grade 4 - Accredited</t>
+  </si>
+  <si>
+    <t>Syed rcg</t>
+  </si>
+  <si>
+    <t>rcg+27584342@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584342</t>
+  </si>
+  <si>
+    <t>27584342</t>
+  </si>
+  <si>
+    <t>rcg+27584343@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584343</t>
+  </si>
+  <si>
+    <t>27584343</t>
+  </si>
+  <si>
+    <t>rcg+27584345@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584345</t>
+  </si>
+  <si>
+    <t>27584345</t>
+  </si>
+  <si>
+    <t>ATM202110140859</t>
+  </si>
+  <si>
+    <t>ATM202110140859 ATM202110140859</t>
+  </si>
+  <si>
+    <t>ATM202110140921 ATM202110140921</t>
+  </si>
+  <si>
+    <t>rcg+27584346@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584346</t>
+  </si>
+  <si>
+    <t>27584346</t>
+  </si>
+  <si>
+    <t>RCG Testing</t>
+  </si>
+  <si>
+    <t>gradeOneCursuwe</t>
+  </si>
+  <si>
+    <t>rcg+27584375@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584375</t>
+  </si>
+  <si>
+    <t>27584375</t>
+  </si>
+  <si>
+    <t>rcg+27584376@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584376</t>
+  </si>
+  <si>
+    <t>27584376</t>
+  </si>
+  <si>
+    <t>ATM202110182319</t>
+  </si>
+  <si>
+    <t>ATM202110182319 ATM202110182319</t>
   </si>
 </sst>
 </file>
@@ -649,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -677,13 +560,13 @@
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3">
         <v>27583950</v>
@@ -691,58 +574,58 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -758,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50012846-BBBE-8F49-8572-8B537A72021A}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -778,46 +661,66 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="349">
   <si>
     <t>Password</t>
   </si>
@@ -180,6 +180,903 @@
   </si>
   <si>
     <t>ATM202110182319 ATM202110182319</t>
+  </si>
+  <si>
+    <t>rcg+27584424@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584424</t>
+  </si>
+  <si>
+    <t>27584424</t>
+  </si>
+  <si>
+    <t>rcg+27584425@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584425</t>
+  </si>
+  <si>
+    <t>27584425</t>
+  </si>
+  <si>
+    <t>rcg+27584426@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584426</t>
+  </si>
+  <si>
+    <t>27584426</t>
+  </si>
+  <si>
+    <t>rcg+27584427@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584427</t>
+  </si>
+  <si>
+    <t>27584427</t>
+  </si>
+  <si>
+    <t>ATM202110251451</t>
+  </si>
+  <si>
+    <t>ATM202110251451 ATM202110251451</t>
+  </si>
+  <si>
+    <t>ATM202110251513</t>
+  </si>
+  <si>
+    <t>ATM202110251513 ATM202110251513</t>
+  </si>
+  <si>
+    <t>rcg+27584428@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584428</t>
+  </si>
+  <si>
+    <t>27584428</t>
+  </si>
+  <si>
+    <t>rcg+27584429@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584429</t>
+  </si>
+  <si>
+    <t>27584429</t>
+  </si>
+  <si>
+    <t>rcg+27584430@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584430</t>
+  </si>
+  <si>
+    <t>27584430</t>
+  </si>
+  <si>
+    <t>rcg+27584431@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584431</t>
+  </si>
+  <si>
+    <t>27584431</t>
+  </si>
+  <si>
+    <t>rcg+27584432@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584432</t>
+  </si>
+  <si>
+    <t>27584432</t>
+  </si>
+  <si>
+    <t>ATM202110251707</t>
+  </si>
+  <si>
+    <t>ATM202110251707 ATM202110251707</t>
+  </si>
+  <si>
+    <t>ATM202110251727</t>
+  </si>
+  <si>
+    <t>ATM202110251727 ATM202110251727</t>
+  </si>
+  <si>
+    <t>rcg+27584433@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584433</t>
+  </si>
+  <si>
+    <t>27584433</t>
+  </si>
+  <si>
+    <t>rcg+27584434@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584434</t>
+  </si>
+  <si>
+    <t>27584434</t>
+  </si>
+  <si>
+    <t>rcg+27584435@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584435</t>
+  </si>
+  <si>
+    <t>27584435</t>
+  </si>
+  <si>
+    <t>rcg+27584437@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584437</t>
+  </si>
+  <si>
+    <t>27584437</t>
+  </si>
+  <si>
+    <t>rcg+27584438@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584438</t>
+  </si>
+  <si>
+    <t>27584438</t>
+  </si>
+  <si>
+    <t>rcg+27584439@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584439</t>
+  </si>
+  <si>
+    <t>27584439</t>
+  </si>
+  <si>
+    <t>rcg+27584440@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584440</t>
+  </si>
+  <si>
+    <t>27584440</t>
+  </si>
+  <si>
+    <t>rcg+27584441@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584441</t>
+  </si>
+  <si>
+    <t>27584441</t>
+  </si>
+  <si>
+    <t>rcg+27584442@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584442</t>
+  </si>
+  <si>
+    <t>27584442</t>
+  </si>
+  <si>
+    <t>rcg+27584443@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584443</t>
+  </si>
+  <si>
+    <t>27584443</t>
+  </si>
+  <si>
+    <t>rcg+27584444@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584444</t>
+  </si>
+  <si>
+    <t>27584444</t>
+  </si>
+  <si>
+    <t>rcg+27584445@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584445</t>
+  </si>
+  <si>
+    <t>27584445</t>
+  </si>
+  <si>
+    <t>rcg+27584446@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584446</t>
+  </si>
+  <si>
+    <t>27584446</t>
+  </si>
+  <si>
+    <t>rcg+27584447@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584447</t>
+  </si>
+  <si>
+    <t>27584447</t>
+  </si>
+  <si>
+    <t>rcg+27584448@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584448</t>
+  </si>
+  <si>
+    <t>27584448</t>
+  </si>
+  <si>
+    <t>rcg+27584449@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584449</t>
+  </si>
+  <si>
+    <t>27584449</t>
+  </si>
+  <si>
+    <t>rcg+27584450@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584450</t>
+  </si>
+  <si>
+    <t>27584450</t>
+  </si>
+  <si>
+    <t>rcg+27584451@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584451</t>
+  </si>
+  <si>
+    <t>27584451</t>
+  </si>
+  <si>
+    <t>rcg+27584452@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584452</t>
+  </si>
+  <si>
+    <t>27584452</t>
+  </si>
+  <si>
+    <t>rcg+27584453@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584453</t>
+  </si>
+  <si>
+    <t>27584453</t>
+  </si>
+  <si>
+    <t>rcg+27584455@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584455</t>
+  </si>
+  <si>
+    <t>27584455</t>
+  </si>
+  <si>
+    <t>rcg+27584456@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584456</t>
+  </si>
+  <si>
+    <t>27584456</t>
+  </si>
+  <si>
+    <t>rcg+27584457@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584457</t>
+  </si>
+  <si>
+    <t>27584457</t>
+  </si>
+  <si>
+    <t>rcg+27584461@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584461</t>
+  </si>
+  <si>
+    <t>27584461</t>
+  </si>
+  <si>
+    <t>rcg+27584462@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584462</t>
+  </si>
+  <si>
+    <t>27584462</t>
+  </si>
+  <si>
+    <t>rcg+27584463@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584463</t>
+  </si>
+  <si>
+    <t>27584463</t>
+  </si>
+  <si>
+    <t>rcg+27584464@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584464</t>
+  </si>
+  <si>
+    <t>27584464</t>
+  </si>
+  <si>
+    <t>rcg+27584465@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584465</t>
+  </si>
+  <si>
+    <t>27584465</t>
+  </si>
+  <si>
+    <t>rcg+27584466@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584466</t>
+  </si>
+  <si>
+    <t>27584466</t>
+  </si>
+  <si>
+    <t>rcg+27584477@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584477</t>
+  </si>
+  <si>
+    <t>27584477</t>
+  </si>
+  <si>
+    <t>rcg+27584478@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584478</t>
+  </si>
+  <si>
+    <t>27584478</t>
+  </si>
+  <si>
+    <t>rcg+27584479@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584479</t>
+  </si>
+  <si>
+    <t>27584479</t>
+  </si>
+  <si>
+    <t>rcg+27584480@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584480</t>
+  </si>
+  <si>
+    <t>27584480</t>
+  </si>
+  <si>
+    <t>rcg+27584481@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584481</t>
+  </si>
+  <si>
+    <t>27584481</t>
+  </si>
+  <si>
+    <t>rcg+27584482@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584482</t>
+  </si>
+  <si>
+    <t>27584482</t>
+  </si>
+  <si>
+    <t>rcg+27584492@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584492</t>
+  </si>
+  <si>
+    <t>27584492</t>
+  </si>
+  <si>
+    <t>rcg+27584494@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584494</t>
+  </si>
+  <si>
+    <t>27584494</t>
+  </si>
+  <si>
+    <t>rcg+27584495@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584495</t>
+  </si>
+  <si>
+    <t>27584495</t>
+  </si>
+  <si>
+    <t>rcg+27584496@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584496</t>
+  </si>
+  <si>
+    <t>27584496</t>
+  </si>
+  <si>
+    <t>rcg+27584497@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584497</t>
+  </si>
+  <si>
+    <t>27584497</t>
+  </si>
+  <si>
+    <t>rcg+27584511@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584511</t>
+  </si>
+  <si>
+    <t>27584511</t>
+  </si>
+  <si>
+    <t>ATM202110270206</t>
+  </si>
+  <si>
+    <t>ATM202110270206 ATM202110270206</t>
+  </si>
+  <si>
+    <t>rcg+27584556@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584556</t>
+  </si>
+  <si>
+    <t>27584556</t>
+  </si>
+  <si>
+    <t>rcg+27584558@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584558</t>
+  </si>
+  <si>
+    <t>27584558</t>
+  </si>
+  <si>
+    <t>rcg+27584559@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584559</t>
+  </si>
+  <si>
+    <t>27584559</t>
+  </si>
+  <si>
+    <t>ATM202110270935</t>
+  </si>
+  <si>
+    <t>ATM202110270935 ATM202110270935</t>
+  </si>
+  <si>
+    <t>rcg+27584560@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584560</t>
+  </si>
+  <si>
+    <t>27584560</t>
+  </si>
+  <si>
+    <t>rcg+27584561@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584561</t>
+  </si>
+  <si>
+    <t>27584561</t>
+  </si>
+  <si>
+    <t>rcg+27584562@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584562</t>
+  </si>
+  <si>
+    <t>27584562</t>
+  </si>
+  <si>
+    <t>rcg+27584563@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584563</t>
+  </si>
+  <si>
+    <t>27584563</t>
+  </si>
+  <si>
+    <t>ATM202110271033</t>
+  </si>
+  <si>
+    <t>ATM202110271033 ATM202110271033</t>
+  </si>
+  <si>
+    <t>ATM202110271057</t>
+  </si>
+  <si>
+    <t>ATM202110271057 ATM202110271057</t>
+  </si>
+  <si>
+    <t>rcg+27584564@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584564</t>
+  </si>
+  <si>
+    <t>27584564</t>
+  </si>
+  <si>
+    <t>rcg+27584565@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584565</t>
+  </si>
+  <si>
+    <t>27584565</t>
+  </si>
+  <si>
+    <t>rcg+27584566@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584566</t>
+  </si>
+  <si>
+    <t>27584566</t>
+  </si>
+  <si>
+    <t>rcg+27584567@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584567</t>
+  </si>
+  <si>
+    <t>27584567</t>
+  </si>
+  <si>
+    <t>rcg+27584568@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584568</t>
+  </si>
+  <si>
+    <t>27584568</t>
+  </si>
+  <si>
+    <t>rcg+27584569@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584569</t>
+  </si>
+  <si>
+    <t>27584569</t>
+  </si>
+  <si>
+    <t>rcg+27584570@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584570</t>
+  </si>
+  <si>
+    <t>27584570</t>
+  </si>
+  <si>
+    <t>rcg+27584571@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584571</t>
+  </si>
+  <si>
+    <t>27584571</t>
+  </si>
+  <si>
+    <t>rcg+27584572@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584572</t>
+  </si>
+  <si>
+    <t>27584572</t>
+  </si>
+  <si>
+    <t>ATM202110271428</t>
+  </si>
+  <si>
+    <t>ATM202110271428 ATM202110271428</t>
+  </si>
+  <si>
+    <t>ATM202110271458</t>
+  </si>
+  <si>
+    <t>ATM202110271458 ATM202110271458</t>
+  </si>
+  <si>
+    <t>rcg+27584573@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584573</t>
+  </si>
+  <si>
+    <t>27584573</t>
+  </si>
+  <si>
+    <t>rcg+27584574@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584574</t>
+  </si>
+  <si>
+    <t>27584574</t>
+  </si>
+  <si>
+    <t>rcg+27584575@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584575</t>
+  </si>
+  <si>
+    <t>27584575</t>
+  </si>
+  <si>
+    <t>ATM202110271814</t>
+  </si>
+  <si>
+    <t>ATM202110271814 ATM202110271814</t>
+  </si>
+  <si>
+    <t>rcg+27584576@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584576</t>
+  </si>
+  <si>
+    <t>27584576</t>
+  </si>
+  <si>
+    <t>ATM202110271840</t>
+  </si>
+  <si>
+    <t>ATM202110271840 ATM202110271840</t>
+  </si>
+  <si>
+    <t>Grade 12</t>
+  </si>
+  <si>
+    <t>rcg+27584579@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584579</t>
+  </si>
+  <si>
+    <t>27584579</t>
+  </si>
+  <si>
+    <t>ATM202110271926</t>
+  </si>
+  <si>
+    <t>ATM202110271926 ATM202110271926</t>
+  </si>
+  <si>
+    <t>rcg+27584580@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584580</t>
+  </si>
+  <si>
+    <t>27584580</t>
+  </si>
+  <si>
+    <t>ATM202110272007</t>
+  </si>
+  <si>
+    <t>ATM202110272007 ATM202110272007</t>
+  </si>
+  <si>
+    <t>rcg+27584583@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584583</t>
+  </si>
+  <si>
+    <t>27584583</t>
+  </si>
+  <si>
+    <t>rcg+27584584@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584584</t>
+  </si>
+  <si>
+    <t>27584584</t>
+  </si>
+  <si>
+    <t>ATM202110272246</t>
+  </si>
+  <si>
+    <t>ATM202110272246 ATM202110272246</t>
+  </si>
+  <si>
+    <t>rcg+27584592@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584592</t>
+  </si>
+  <si>
+    <t>27584592</t>
+  </si>
+  <si>
+    <t>ATM202110280014</t>
+  </si>
+  <si>
+    <t>ATM202110280014 ATM202110280014</t>
+  </si>
+  <si>
+    <t>rcg+27584594@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584594</t>
+  </si>
+  <si>
+    <t>27584594</t>
+  </si>
+  <si>
+    <t>ATM202110280046</t>
+  </si>
+  <si>
+    <t>ATM202110280046 ATM202110280046</t>
+  </si>
+  <si>
+    <t>rcg+27584597@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584597</t>
+  </si>
+  <si>
+    <t>27584597</t>
+  </si>
+  <si>
+    <t>rcg+27584598@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584598</t>
+  </si>
+  <si>
+    <t>27584598</t>
+  </si>
+  <si>
+    <t>rcg+27584599@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584599</t>
+  </si>
+  <si>
+    <t>27584599</t>
+  </si>
+  <si>
+    <t>rcg+27584600@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584600</t>
+  </si>
+  <si>
+    <t>27584600</t>
+  </si>
+  <si>
+    <t>ATM202110281531</t>
+  </si>
+  <si>
+    <t>ATM202110281531 ATM202110281531</t>
+  </si>
+  <si>
+    <t>ATM202110281545</t>
+  </si>
+  <si>
+    <t>ATM202110281545 ATM202110281545</t>
+  </si>
+  <si>
+    <t>ATM202110281559</t>
+  </si>
+  <si>
+    <t>ATM202110281559 ATM202110281559</t>
+  </si>
+  <si>
+    <t>rcg+27584602@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584602</t>
+  </si>
+  <si>
+    <t>27584602</t>
+  </si>
+  <si>
+    <t>rcg+27584603@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584603</t>
+  </si>
+  <si>
+    <t>27584603</t>
+  </si>
+  <si>
+    <t>ATM202110281845</t>
+  </si>
+  <si>
+    <t>ATM202110281845 ATM202110281845</t>
+  </si>
+  <si>
+    <t>rcg+27584604@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584604</t>
+  </si>
+  <si>
+    <t>27584604</t>
+  </si>
+  <si>
+    <t>ATM202110281958</t>
+  </si>
+  <si>
+    <t>ATM202110281958 ATM202110281958</t>
+  </si>
+  <si>
+    <t>rcg+27584606@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584606</t>
+  </si>
+  <si>
+    <t>27584606</t>
+  </si>
+  <si>
+    <t>ATM202110290054</t>
+  </si>
+  <si>
+    <t>ATM202110290054 ATM202110290054</t>
   </si>
 </sst>
 </file>
@@ -574,58 +1471,58 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>45</v>
+        <v>331</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>25</v>
+        <v>339</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>26</v>
+        <v>340</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>317</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>344</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>345</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -683,13 +1580,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>328</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -697,13 +1594,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>343</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -711,16 +1608,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>326</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/QA-Automation/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E02E7FC-A28F-8446-BDA2-F74E5E225140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358ADA4B-7044-B348-844B-41B338991B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParentCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="StudentCredentials" sheetId="2" r:id="rId2"/>
     <sheet name="GradeWiseVideoList" sheetId="7" r:id="rId3"/>
     <sheet name="GradeOneVideoList" sheetId="4" r:id="rId4"/>
-    <sheet name="DigitalAssessmentList" sheetId="3" r:id="rId5"/>
-    <sheet name="Grade9StudentCredentials" sheetId="5" r:id="rId6"/>
+    <sheet name="GradeNineVideoList" sheetId="5" r:id="rId5"/>
+    <sheet name="DigitalAssessmentList" sheetId="3" r:id="rId6"/>
     <sheet name="Grade12StudentCredentials" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="76">
   <si>
     <t>Password</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Password@123</t>
   </si>
   <si>
-    <t>Auto20210719181533106</t>
-  </si>
-  <si>
     <t>Auto20210827004426713</t>
   </si>
   <si>
@@ -90,24 +87,12 @@
     <t>Grade 12</t>
   </si>
   <si>
-    <t>ATM202110281531</t>
-  </si>
-  <si>
-    <t>ATM202110281531 ATM202110281531</t>
-  </si>
-  <si>
     <t>ATM202110281958</t>
   </si>
   <si>
     <t>ATM202110281958 ATM202110281958</t>
   </si>
   <si>
-    <t>ATM202110290054</t>
-  </si>
-  <si>
-    <t>ATM202110290054 ATM202110290054</t>
-  </si>
-  <si>
     <t>Bible</t>
   </si>
   <si>
@@ -171,9 +156,6 @@
     <t>Hebrew History</t>
   </si>
   <si>
-    <t>English 9</t>
-  </si>
-  <si>
     <t>Algebra 1</t>
   </si>
   <si>
@@ -186,39 +168,6 @@
     <t>Health</t>
   </si>
   <si>
-    <t>Content Quiz 4</t>
-  </si>
-  <si>
-    <t>Speed/Comprehension Quiz 6</t>
-  </si>
-  <si>
-    <t>Grammar Quiz 7</t>
-  </si>
-  <si>
-    <t>Quiz 12</t>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="15"/>
-        <color rgb="FF444444"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Appendix Quiz F</t>
-    </r>
-  </si>
-  <si>
-    <t>Quiz 11</t>
-  </si>
-  <si>
-    <t>Quiz 9</t>
-  </si>
-  <si>
     <t>SegmentId</t>
   </si>
   <si>
@@ -261,12 +210,6 @@
     <t>27584641</t>
   </si>
   <si>
-    <t>rcg+27584642@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584642</t>
-  </si>
-  <si>
     <t>27584642</t>
   </si>
   <si>
@@ -304,13 +247,25 @@
   </si>
   <si>
     <t>FirstgradeIT1</t>
+  </si>
+  <si>
+    <t>Content Quiz 1</t>
+  </si>
+  <si>
+    <t>Quiz 1</t>
+  </si>
+  <si>
+    <t>Appendix Quiz A</t>
+  </si>
+  <si>
+    <t>NinthgradeIT1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,13 +307,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="15"/>
-      <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9.8000000000000007"/>
@@ -418,8 +366,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -706,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -729,18 +677,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16">
       <c r="A2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3">
         <v>27583950</v>
@@ -748,64 +696,64 @@
     </row>
     <row r="3" spans="1:4" ht="16">
       <c r="A3" s="9" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16">
+      <c r="A6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B6" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{10CF41B5-1ECE-C740-B375-B40D4BD2B945}"/>
-    <hyperlink ref="A3" r:id="rId2" tooltip="mailto:ABATestAccount@pcci.edu" display="mailto:ABATestAccount@pcci.edu" xr:uid="{CBB1F535-7EFB-D349-AB45-8B58256234AE}"/>
+    <hyperlink ref="A3" r:id="rId1" tooltip="mailto:ABATestAccount@pcci.edu" display="mailto:ABATestAccount@pcci.edu" xr:uid="{CBB1F535-7EFB-D349-AB45-8B58256234AE}"/>
+    <hyperlink ref="A6" r:id="rId2" tooltip="mailto:ABATestAccount@pcci.edu" display="mailto:ABATestAccount@pcci.edu" xr:uid="{172ED60C-25B4-D54C-B33E-5F5EBA95D3CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -820,7 +768,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -839,80 +787,80 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16">
       <c r="A2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -939,39 +887,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2">
@@ -983,16 +931,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3">
@@ -1004,16 +952,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4">
@@ -1025,16 +973,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5">
@@ -1046,16 +994,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6">
@@ -1067,16 +1015,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7">
@@ -1088,16 +1036,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8">
@@ -1109,10 +1057,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9">
@@ -1124,10 +1072,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10">
@@ -1148,7 +1096,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1158,39 +1106,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2">
@@ -1202,16 +1150,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3">
@@ -1223,16 +1171,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4">
@@ -1244,16 +1192,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5">
@@ -1265,16 +1213,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6">
@@ -1286,16 +1234,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7">
@@ -1307,16 +1255,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8">
@@ -1328,13 +1276,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9">
@@ -1346,13 +1294,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10">
@@ -1368,11 +1316,179 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D1542F-B48A-6941-87AE-0D73394C5070}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903AAD5F-E2CA-8F41-81A5-DCE49C6E583F}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1384,24 +1500,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16">
       <c r="A1" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16">
       <c r="A2" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="b">
@@ -1410,10 +1526,10 @@
     </row>
     <row r="3" spans="1:4" ht="16">
       <c r="A3" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="b">
@@ -1422,10 +1538,10 @@
     </row>
     <row r="4" spans="1:4" ht="16">
       <c r="A4" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="b">
@@ -1434,92 +1550,31 @@
     </row>
     <row r="5" spans="1:4" ht="16">
       <c r="A5" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19">
+    <row r="6" spans="1:4" ht="16">
       <c r="A6" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16">
-      <c r="A7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16">
-      <c r="A8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D1542F-B48A-6941-87AE-0D73394C5070}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1549,7 +1604,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/QA-Automation/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358ADA4B-7044-B348-844B-41B338991B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B0531C-F2AB-8042-9F11-045360E38D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParentCredentials" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="83">
   <si>
     <t>Password</t>
   </si>
@@ -259,6 +259,27 @@
   </si>
   <si>
     <t>NinthgradeIT1</t>
+  </si>
+  <si>
+    <t>Classroom Routines</t>
+  </si>
+  <si>
+    <t>Seatwork Explanation (Cursive)</t>
+  </si>
+  <si>
+    <t>Phonics/Language</t>
+  </si>
+  <si>
+    <t>Cursive Writing</t>
+  </si>
+  <si>
+    <t>Spelling/Poetry</t>
+  </si>
+  <si>
+    <t>Combination Practice</t>
+  </si>
+  <si>
+    <t>Activity Time</t>
   </si>
 </sst>
 </file>
@@ -1095,13 +1116,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F814710-126C-F845-8A8F-5D817919A993}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1129,16 +1152,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>21</v>
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2">
@@ -1150,16 +1173,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>22</v>
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3">
@@ -1171,16 +1194,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>25</v>
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4">
@@ -1192,16 +1215,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>31</v>
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5">
@@ -1213,16 +1236,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>32</v>
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6">
@@ -1234,20 +1257,20 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>33</v>
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1255,16 +1278,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>66</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>34</v>
+      <c r="D8" t="s">
+        <v>66</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8">
@@ -1276,13 +1299,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>35</v>
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9">
@@ -1294,13 +1320,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>36</v>
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10">
@@ -1319,7 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D1542F-B48A-6941-87AE-0D73394C5070}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/QA-Automation/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B0531C-F2AB-8042-9F11-045360E38D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47162545-E857-B04A-9129-7ECD017C7DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="90">
   <si>
     <t>Password</t>
   </si>
@@ -280,6 +280,27 @@
   </si>
   <si>
     <t>Activity Time</t>
+  </si>
+  <si>
+    <t>Manuscript Subject</t>
+  </si>
+  <si>
+    <t>Seatwork Explanation (Manuscript)</t>
+  </si>
+  <si>
+    <t>AM Giraffes</t>
+  </si>
+  <si>
+    <t>Lesson 4</t>
+  </si>
+  <si>
+    <t>AM Monkeys</t>
+  </si>
+  <si>
+    <t>AM Elephants</t>
+  </si>
+  <si>
+    <t>Manuscript Writing</t>
   </si>
 </sst>
 </file>
@@ -789,7 +810,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1114,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F814710-126C-F845-8A8F-5D817919A993}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1337,6 +1358,247 @@
       </c>
       <c r="G10">
         <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/QA-Automation/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47162545-E857-B04A-9129-7ECD017C7DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C023A63-9429-4447-B164-EDDC3B4C7275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,11 @@
     <sheet name="GradeNineVideoList" sheetId="5" r:id="rId5"/>
     <sheet name="DigitalAssessmentList" sheetId="3" r:id="rId6"/>
     <sheet name="Grade12StudentCredentials" sheetId="6" r:id="rId7"/>
+    <sheet name="HolidayList" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="118">
   <si>
     <t>Password</t>
   </si>
@@ -301,13 +302,98 @@
   </si>
   <si>
     <t>Manuscript Writing</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Begin Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Easter Break</t>
+  </si>
+  <si>
+    <t>Memorial Day</t>
+  </si>
+  <si>
+    <t>Independence Day</t>
+  </si>
+  <si>
+    <t>Labor Day</t>
+  </si>
+  <si>
+    <t>Veterans Day</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>Christmas Break</t>
+  </si>
+  <si>
+    <t>Martin L. King Day</t>
+  </si>
+  <si>
+    <t>Presidents Day</t>
+  </si>
+  <si>
+    <t>PregressReportEventPreview</t>
+  </si>
+  <si>
+    <t>EventID</t>
+  </si>
+  <si>
+    <t>event_5079687770440</t>
+  </si>
+  <si>
+    <t>PreviewTitle</t>
+  </si>
+  <si>
+    <t>Arithmetic | Lesson</t>
+  </si>
+  <si>
+    <t>PopupTitle</t>
+  </si>
+  <si>
+    <t>PreviewDescription</t>
+  </si>
+  <si>
+    <t>Written 1 (Day 13)</t>
+  </si>
+  <si>
+    <t>PopupType</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>DayCount</t>
+  </si>
+  <si>
+    <t>rcg+27584683@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584683</t>
+  </si>
+  <si>
+    <t>27584683</t>
+  </si>
+  <si>
+    <t>ATM202111222327</t>
+  </si>
+  <si>
+    <t>ATM202111222327 ATM202111222327</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <numFmts count="0"/>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +448,18 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF284775"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -371,7 +469,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -388,13 +486,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -412,6 +645,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -697,15 +942,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.80078125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
@@ -766,16 +1011,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16">
@@ -810,15 +1055,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.94140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
@@ -879,13 +1124,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -921,10 +1166,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="25.83203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.83203125" collapsed="true"/>
+    <col min="4" max="6" customWidth="true" width="25.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1135,17 +1380,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F814710-126C-F845-8A8F-5D817919A993}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="27.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1601,8 +1846,54 @@
         <v>23</v>
       </c>
     </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1616,13 +1907,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1784,9 +2075,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
@@ -1879,7 +2170,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16">
@@ -1904,4 +2195,144 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBBAFEF-58E0-8942-8697-2D2C69A91F33}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="15">
+        <v>20210329</v>
+      </c>
+      <c r="C2" s="21">
+        <v>20210402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="16">
+        <v>20210531</v>
+      </c>
+      <c r="C3" s="23">
+        <v>20210531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="15">
+        <v>20210705</v>
+      </c>
+      <c r="C4" s="21">
+        <v>20210705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="16">
+        <v>20210906</v>
+      </c>
+      <c r="C5" s="23">
+        <v>20210906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="15">
+        <v>20211111</v>
+      </c>
+      <c r="C6" s="21">
+        <v>20211111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="16">
+        <v>20211124</v>
+      </c>
+      <c r="C7" s="23">
+        <v>20211126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="15">
+        <v>20211125</v>
+      </c>
+      <c r="C8" s="21">
+        <v>20211126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="16">
+        <v>20211220</v>
+      </c>
+      <c r="C9" s="23">
+        <v>20220104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="15">
+        <v>20220117</v>
+      </c>
+      <c r="C10" s="21">
+        <v>20220117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" thickBot="1">
+      <c r="A11" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="25">
+        <v>20220221</v>
+      </c>
+      <c r="C11" s="26">
+        <v>20220221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="145">
   <si>
     <t>Password</t>
   </si>
@@ -386,6 +386,87 @@
   </si>
   <si>
     <t>ATM202111222327 ATM202111222327</t>
+  </si>
+  <si>
+    <t>rcg+27584685@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584685</t>
+  </si>
+  <si>
+    <t>27584685</t>
+  </si>
+  <si>
+    <t>ATM202111251820</t>
+  </si>
+  <si>
+    <t>ATM202111251820 ATM202111251820</t>
+  </si>
+  <si>
+    <t>rcg+27584686@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584686</t>
+  </si>
+  <si>
+    <t>27584686</t>
+  </si>
+  <si>
+    <t>rcg+27584687@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584687</t>
+  </si>
+  <si>
+    <t>27584687</t>
+  </si>
+  <si>
+    <t>rcg+27584688@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584688</t>
+  </si>
+  <si>
+    <t>27584688</t>
+  </si>
+  <si>
+    <t>rcg+27584689@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584689</t>
+  </si>
+  <si>
+    <t>27584689</t>
+  </si>
+  <si>
+    <t>ATM202111251944</t>
+  </si>
+  <si>
+    <t>ATM202111251944 ATM202111251944</t>
+  </si>
+  <si>
+    <t>rcg+27584690@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584690</t>
+  </si>
+  <si>
+    <t>27584690</t>
+  </si>
+  <si>
+    <t>ATM202111251958</t>
+  </si>
+  <si>
+    <t>ATM202111251958 ATM202111251958</t>
+  </si>
+  <si>
+    <t>rcg+27584691@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584691</t>
+  </si>
+  <si>
+    <t>27584691</t>
   </si>
 </sst>
 </file>
@@ -947,7 +1028,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.80078125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.75" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="32.83203125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
@@ -983,58 +1064,58 @@
     </row>
     <row r="3" spans="1:4" ht="16">
       <c r="A3" s="9" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16">
       <c r="A6" s="9" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1096,13 +1177,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1110,13 +1191,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1124,13 +1205,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="216">
   <si>
     <t>Password</t>
   </si>
@@ -467,6 +467,219 @@
   </si>
   <si>
     <t>27584691</t>
+  </si>
+  <si>
+    <t>rcg+27584692@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584692</t>
+  </si>
+  <si>
+    <t>27584692</t>
+  </si>
+  <si>
+    <t>rcg+27584693@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584693</t>
+  </si>
+  <si>
+    <t>27584693</t>
+  </si>
+  <si>
+    <t>rcg+27584694@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584694</t>
+  </si>
+  <si>
+    <t>27584694</t>
+  </si>
+  <si>
+    <t>rcg+27584695@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584695</t>
+  </si>
+  <si>
+    <t>27584695</t>
+  </si>
+  <si>
+    <t>rcg+27584696@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584696</t>
+  </si>
+  <si>
+    <t>27584696</t>
+  </si>
+  <si>
+    <t>rcg+27584697@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584697</t>
+  </si>
+  <si>
+    <t>27584697</t>
+  </si>
+  <si>
+    <t>rcg+27584698@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584698</t>
+  </si>
+  <si>
+    <t>27584698</t>
+  </si>
+  <si>
+    <t>rcg+27584699@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584699</t>
+  </si>
+  <si>
+    <t>27584699</t>
+  </si>
+  <si>
+    <t>ATM202111262019</t>
+  </si>
+  <si>
+    <t>ATM202111262019 ATM202111262019</t>
+  </si>
+  <si>
+    <t>rcg+27584700@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584700</t>
+  </si>
+  <si>
+    <t>27584700</t>
+  </si>
+  <si>
+    <t>ATM202111262036</t>
+  </si>
+  <si>
+    <t>ATM202111262036 ATM202111262036</t>
+  </si>
+  <si>
+    <t>rcg+27584701@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584701</t>
+  </si>
+  <si>
+    <t>27584701</t>
+  </si>
+  <si>
+    <t>rcg+27584702@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584702</t>
+  </si>
+  <si>
+    <t>27584702</t>
+  </si>
+  <si>
+    <t>ATM202111262059</t>
+  </si>
+  <si>
+    <t>ATM202111262059 ATM202111262059</t>
+  </si>
+  <si>
+    <t>rcg+27584703@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584703</t>
+  </si>
+  <si>
+    <t>27584703</t>
+  </si>
+  <si>
+    <t>rcg+27584704@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584704</t>
+  </si>
+  <si>
+    <t>27584704</t>
+  </si>
+  <si>
+    <t>ATM202111262134</t>
+  </si>
+  <si>
+    <t>ATM202111262134 ATM202111262134</t>
+  </si>
+  <si>
+    <t>rcg+27584705@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584705</t>
+  </si>
+  <si>
+    <t>27584705</t>
+  </si>
+  <si>
+    <t>ATM202111262150</t>
+  </si>
+  <si>
+    <t>ATM202111262150 ATM202111262150</t>
+  </si>
+  <si>
+    <t>rcg+27584706@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584706</t>
+  </si>
+  <si>
+    <t>27584706</t>
+  </si>
+  <si>
+    <t>rcg+27584707@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584707</t>
+  </si>
+  <si>
+    <t>27584707</t>
+  </si>
+  <si>
+    <t>rcg+27584708@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584708</t>
+  </si>
+  <si>
+    <t>27584708</t>
+  </si>
+  <si>
+    <t>ATM202111262249</t>
+  </si>
+  <si>
+    <t>ATM202111262249 ATM202111262249</t>
+  </si>
+  <si>
+    <t>rcg+27584709@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584709</t>
+  </si>
+  <si>
+    <t>27584709</t>
+  </si>
+  <si>
+    <t>ATM202111262304</t>
+  </si>
+  <si>
+    <t>ATM202111262304 ATM202111262304</t>
+  </si>
+  <si>
+    <t>rcg+27584710@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584710</t>
+  </si>
+  <si>
+    <t>27584710</t>
   </si>
 </sst>
 </file>
@@ -1064,58 +1277,58 @@
     </row>
     <row r="3" spans="1:4" ht="16">
       <c r="A3" s="9" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16">
       <c r="A6" s="9" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1177,13 +1390,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1191,13 +1404,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1205,13 +1418,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1219,13 +1432,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/QA-Automation/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C023A63-9429-4447-B164-EDDC3B4C7275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC84DBB6-03A4-CD4D-9856-E715EFE3C5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParentCredentials" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="HolidayList" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="219">
   <si>
     <t>Password</t>
   </si>
@@ -55,12 +56,6 @@
     <t>Joe Customer</t>
   </si>
   <si>
-    <t>StudentName</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
     <t>syed.rcg</t>
   </si>
   <si>
@@ -70,616 +65,631 @@
     <t>rcg@pcci.edu</t>
   </si>
   <si>
+    <t>RCG Testing</t>
+  </si>
+  <si>
+    <t>Bible</t>
+  </si>
+  <si>
+    <t>Bible 4</t>
+  </si>
+  <si>
+    <t>Penmanship 4</t>
+  </si>
+  <si>
+    <t>Lesson 1</t>
+  </si>
+  <si>
+    <t>Arithmetic</t>
+  </si>
+  <si>
+    <t>Reading 4</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Penmanship</t>
+  </si>
+  <si>
+    <t>Spelling/Vocabulary/Poetry</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Arithmetic 4</t>
+  </si>
+  <si>
+    <t>Science 4</t>
+  </si>
+  <si>
+    <t>Spelling 4</t>
+  </si>
+  <si>
+    <t>History 4</t>
+  </si>
+  <si>
+    <t>Health 4</t>
+  </si>
+  <si>
+    <t>Activities 4</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Quiz</t>
+  </si>
+  <si>
+    <t>IsLocked</t>
+  </si>
+  <si>
+    <t>Hebrew History</t>
+  </si>
+  <si>
+    <t>Algebra 1</t>
+  </si>
+  <si>
+    <t>Physical Science</t>
+  </si>
+  <si>
+    <t>World Geography</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>SegmentId</t>
+  </si>
+  <si>
+    <t>NextDayLessonOfVideoLibrary</t>
+  </si>
+  <si>
+    <t>TodayLessonOfVideoLibrary</t>
+  </si>
+  <si>
+    <t>MyLessonsTodaySubjectList</t>
+  </si>
+  <si>
+    <t>MyLessonsTodayLessonList</t>
+  </si>
+  <si>
+    <t>VideoLibraryDropdownSubjectList</t>
+  </si>
+  <si>
+    <t>VideoLibraryDropdownLongDescriptionList</t>
+  </si>
+  <si>
+    <t>Activities 1</t>
+  </si>
+  <si>
+    <t>Arithmetic 1</t>
+  </si>
+  <si>
+    <t>Bible 1</t>
+  </si>
+  <si>
+    <t>Classroom Routines 1</t>
+  </si>
+  <si>
+    <t>Phonics 1</t>
+  </si>
+  <si>
+    <t>Reading 1</t>
+  </si>
+  <si>
+    <t>Seatwork 1</t>
+  </si>
+  <si>
+    <t>Spelling 1</t>
+  </si>
+  <si>
+    <t>Writing 1</t>
+  </si>
+  <si>
+    <t>Content Quiz 1</t>
+  </si>
+  <si>
+    <t>Quiz 1</t>
+  </si>
+  <si>
+    <t>Appendix Quiz A</t>
+  </si>
+  <si>
+    <t>Classroom Routines</t>
+  </si>
+  <si>
+    <t>Seatwork Explanation (Cursive)</t>
+  </si>
+  <si>
+    <t>Phonics/Language</t>
+  </si>
+  <si>
+    <t>Cursive Writing</t>
+  </si>
+  <si>
+    <t>Spelling/Poetry</t>
+  </si>
+  <si>
+    <t>Combination Practice</t>
+  </si>
+  <si>
+    <t>Activity Time</t>
+  </si>
+  <si>
+    <t>Manuscript Subject</t>
+  </si>
+  <si>
+    <t>Seatwork Explanation (Manuscript)</t>
+  </si>
+  <si>
+    <t>AM Giraffes</t>
+  </si>
+  <si>
+    <t>Lesson 4</t>
+  </si>
+  <si>
+    <t>AM Monkeys</t>
+  </si>
+  <si>
+    <t>AM Elephants</t>
+  </si>
+  <si>
+    <t>Manuscript Writing</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Begin Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Easter Break</t>
+  </si>
+  <si>
+    <t>Memorial Day</t>
+  </si>
+  <si>
+    <t>Independence Day</t>
+  </si>
+  <si>
+    <t>Labor Day</t>
+  </si>
+  <si>
+    <t>Veterans Day</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>Christmas Break</t>
+  </si>
+  <si>
+    <t>Martin L. King Day</t>
+  </si>
+  <si>
+    <t>Presidents Day</t>
+  </si>
+  <si>
+    <t>PregressReportEventPreview</t>
+  </si>
+  <si>
+    <t>EventID</t>
+  </si>
+  <si>
+    <t>event_5079687770440</t>
+  </si>
+  <si>
+    <t>PreviewTitle</t>
+  </si>
+  <si>
+    <t>Arithmetic | Lesson</t>
+  </si>
+  <si>
+    <t>PopupTitle</t>
+  </si>
+  <si>
+    <t>PreviewDescription</t>
+  </si>
+  <si>
+    <t>Written 1 (Day 13)</t>
+  </si>
+  <si>
+    <t>PopupType</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>DayCount</t>
+  </si>
+  <si>
+    <t>rcg+27584705@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584705</t>
+  </si>
+  <si>
+    <t>27584705</t>
+  </si>
+  <si>
+    <t>rcg+27584708@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584708</t>
+  </si>
+  <si>
+    <t>27584708</t>
+  </si>
+  <si>
+    <t>CartNumber</t>
+  </si>
+  <si>
+    <t>rcg+27584734@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584734</t>
+  </si>
+  <si>
+    <t>27584734</t>
+  </si>
+  <si>
+    <t>rcg+27584739@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584739</t>
+  </si>
+  <si>
+    <t>27584739</t>
+  </si>
+  <si>
+    <t>rcg+27584745@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584745</t>
+  </si>
+  <si>
+    <t>27584745</t>
+  </si>
+  <si>
+    <t>73898</t>
+  </si>
+  <si>
+    <t>ATM202112021358</t>
+  </si>
+  <si>
+    <t>ATM202112021358 ATM202112021358</t>
+  </si>
+  <si>
+    <t>Grade 1 - Accredited</t>
+  </si>
+  <si>
+    <t>rcg+27584746@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584746</t>
+  </si>
+  <si>
+    <t>27584746</t>
+  </si>
+  <si>
+    <t>73899</t>
+  </si>
+  <si>
+    <t>ATM202112021415</t>
+  </si>
+  <si>
+    <t>ATM202112021415 ATM202112021415</t>
+  </si>
+  <si>
+    <t>Grade 4 - Accredited</t>
+  </si>
+  <si>
+    <t>rcg+27584747@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584747</t>
+  </si>
+  <si>
+    <t>27584747</t>
+  </si>
+  <si>
+    <t>73900</t>
+  </si>
+  <si>
+    <t>ATM202112021430</t>
+  </si>
+  <si>
+    <t>ATM202112021430 ATM202112021430</t>
+  </si>
+  <si>
     <t>Grade 9</t>
   </si>
   <si>
-    <t>Grade 1 - Accredited</t>
-  </si>
-  <si>
-    <t>Grade 4 - Accredited</t>
-  </si>
-  <si>
-    <t>Syed rcg</t>
-  </si>
-  <si>
-    <t>RCG Testing</t>
+    <t>rcg+27584748@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584748</t>
+  </si>
+  <si>
+    <t>27584748</t>
+  </si>
+  <si>
+    <t>73901</t>
+  </si>
+  <si>
+    <t>ATM202112021446</t>
+  </si>
+  <si>
+    <t>ATM202112021446 ATM202112021446</t>
   </si>
   <si>
     <t>Grade 12</t>
   </si>
   <si>
-    <t>ATM202110281958</t>
-  </si>
-  <si>
-    <t>ATM202110281958 ATM202110281958</t>
-  </si>
-  <si>
-    <t>Bible</t>
-  </si>
-  <si>
-    <t>Bible 4</t>
-  </si>
-  <si>
-    <t>Penmanship 4</t>
-  </si>
-  <si>
-    <t>Lesson 1</t>
-  </si>
-  <si>
-    <t>Arithmetic</t>
-  </si>
-  <si>
-    <t>Reading 4</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Penmanship</t>
-  </si>
-  <si>
-    <t>Spelling/Vocabulary/Poetry</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>Arithmetic 4</t>
-  </si>
-  <si>
-    <t>Science 4</t>
-  </si>
-  <si>
-    <t>Spelling 4</t>
-  </si>
-  <si>
-    <t>History 4</t>
-  </si>
-  <si>
-    <t>Health 4</t>
-  </si>
-  <si>
-    <t>Activities 4</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Quiz</t>
-  </si>
-  <si>
-    <t>IsLocked</t>
-  </si>
-  <si>
-    <t>Hebrew History</t>
-  </si>
-  <si>
-    <t>Algebra 1</t>
-  </si>
-  <si>
-    <t>Physical Science</t>
-  </si>
-  <si>
-    <t>World Geography</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>SegmentId</t>
-  </si>
-  <si>
-    <t>NextDayLessonOfVideoLibrary</t>
-  </si>
-  <si>
-    <t>TodayLessonOfVideoLibrary</t>
-  </si>
-  <si>
-    <t>MyLessonsTodaySubjectList</t>
-  </si>
-  <si>
-    <t>MyLessonsTodayLessonList</t>
-  </si>
-  <si>
-    <t>VideoLibraryDropdownSubjectList</t>
-  </si>
-  <si>
-    <t>VideoLibraryDropdownLongDescriptionList</t>
-  </si>
-  <si>
-    <t>rcg+27584639@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584639</t>
-  </si>
-  <si>
-    <t>27584639</t>
-  </si>
-  <si>
-    <t>rcg+27584640@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584640</t>
-  </si>
-  <si>
-    <t>27584640</t>
-  </si>
-  <si>
-    <t>27584641</t>
-  </si>
-  <si>
-    <t>27584642</t>
-  </si>
-  <si>
-    <t>Activities 1</t>
-  </si>
-  <si>
-    <t>Arithmetic 1</t>
-  </si>
-  <si>
-    <t>Bible 1</t>
-  </si>
-  <si>
-    <t>Classroom Routines 1</t>
-  </si>
-  <si>
-    <t>Phonics 1</t>
-  </si>
-  <si>
-    <t>Reading 1</t>
-  </si>
-  <si>
-    <t>Seatwork 1</t>
-  </si>
-  <si>
-    <t>Spelling 1</t>
-  </si>
-  <si>
-    <t>Writing 1</t>
-  </si>
-  <si>
-    <t>ABATestAccount@pcci.edu</t>
-  </si>
-  <si>
-    <t>Book1234</t>
-  </si>
-  <si>
-    <t>FirstgradeIT1</t>
-  </si>
-  <si>
-    <t>Content Quiz 1</t>
-  </si>
-  <si>
-    <t>Quiz 1</t>
-  </si>
-  <si>
-    <t>Appendix Quiz A</t>
-  </si>
-  <si>
-    <t>NinthgradeIT1</t>
-  </si>
-  <si>
-    <t>Classroom Routines</t>
-  </si>
-  <si>
-    <t>Seatwork Explanation (Cursive)</t>
-  </si>
-  <si>
-    <t>Phonics/Language</t>
-  </si>
-  <si>
-    <t>Cursive Writing</t>
-  </si>
-  <si>
-    <t>Spelling/Poetry</t>
-  </si>
-  <si>
-    <t>Combination Practice</t>
-  </si>
-  <si>
-    <t>Activity Time</t>
-  </si>
-  <si>
-    <t>Manuscript Subject</t>
-  </si>
-  <si>
-    <t>Seatwork Explanation (Manuscript)</t>
-  </si>
-  <si>
-    <t>AM Giraffes</t>
-  </si>
-  <si>
-    <t>Lesson 4</t>
-  </si>
-  <si>
-    <t>AM Monkeys</t>
-  </si>
-  <si>
-    <t>AM Elephants</t>
-  </si>
-  <si>
-    <t>Manuscript Writing</t>
-  </si>
-  <si>
-    <t>Holiday</t>
-  </si>
-  <si>
-    <t>Begin Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Easter Break</t>
-  </si>
-  <si>
-    <t>Memorial Day</t>
-  </si>
-  <si>
-    <t>Independence Day</t>
-  </si>
-  <si>
-    <t>Labor Day</t>
-  </si>
-  <si>
-    <t>Veterans Day</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>Christmas Break</t>
-  </si>
-  <si>
-    <t>Martin L. King Day</t>
-  </si>
-  <si>
-    <t>Presidents Day</t>
-  </si>
-  <si>
-    <t>PregressReportEventPreview</t>
-  </si>
-  <si>
-    <t>EventID</t>
-  </si>
-  <si>
-    <t>event_5079687770440</t>
-  </si>
-  <si>
-    <t>PreviewTitle</t>
-  </si>
-  <si>
-    <t>Arithmetic | Lesson</t>
-  </si>
-  <si>
-    <t>PopupTitle</t>
-  </si>
-  <si>
-    <t>PreviewDescription</t>
-  </si>
-  <si>
-    <t>Written 1 (Day 13)</t>
-  </si>
-  <si>
-    <t>PopupType</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>DayCount</t>
-  </si>
-  <si>
-    <t>rcg+27584683@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584683</t>
-  </si>
-  <si>
-    <t>27584683</t>
-  </si>
-  <si>
-    <t>ATM202111222327</t>
-  </si>
-  <si>
-    <t>ATM202111222327 ATM202111222327</t>
-  </si>
-  <si>
-    <t>rcg+27584685@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584685</t>
-  </si>
-  <si>
-    <t>27584685</t>
-  </si>
-  <si>
-    <t>ATM202111251820</t>
-  </si>
-  <si>
-    <t>ATM202111251820 ATM202111251820</t>
-  </si>
-  <si>
-    <t>rcg+27584686@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584686</t>
-  </si>
-  <si>
-    <t>27584686</t>
-  </si>
-  <si>
-    <t>rcg+27584687@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584687</t>
-  </si>
-  <si>
-    <t>27584687</t>
-  </si>
-  <si>
-    <t>rcg+27584688@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584688</t>
-  </si>
-  <si>
-    <t>27584688</t>
-  </si>
-  <si>
-    <t>rcg+27584689@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584689</t>
-  </si>
-  <si>
-    <t>27584689</t>
-  </si>
-  <si>
-    <t>ATM202111251944</t>
-  </si>
-  <si>
-    <t>ATM202111251944 ATM202111251944</t>
-  </si>
-  <si>
-    <t>rcg+27584690@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584690</t>
-  </si>
-  <si>
-    <t>27584690</t>
-  </si>
-  <si>
-    <t>ATM202111251958</t>
-  </si>
-  <si>
-    <t>ATM202111251958 ATM202111251958</t>
-  </si>
-  <si>
-    <t>rcg+27584691@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584691</t>
-  </si>
-  <si>
-    <t>27584691</t>
-  </si>
-  <si>
-    <t>rcg+27584692@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584692</t>
-  </si>
-  <si>
-    <t>27584692</t>
-  </si>
-  <si>
-    <t>rcg+27584693@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584693</t>
-  </si>
-  <si>
-    <t>27584693</t>
-  </si>
-  <si>
-    <t>rcg+27584694@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584694</t>
-  </si>
-  <si>
-    <t>27584694</t>
-  </si>
-  <si>
-    <t>rcg+27584695@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584695</t>
-  </si>
-  <si>
-    <t>27584695</t>
-  </si>
-  <si>
-    <t>rcg+27584696@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584696</t>
-  </si>
-  <si>
-    <t>27584696</t>
-  </si>
-  <si>
-    <t>rcg+27584697@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584697</t>
-  </si>
-  <si>
-    <t>27584697</t>
-  </si>
-  <si>
-    <t>rcg+27584698@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584698</t>
-  </si>
-  <si>
-    <t>27584698</t>
-  </si>
-  <si>
-    <t>rcg+27584699@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584699</t>
-  </si>
-  <si>
-    <t>27584699</t>
-  </si>
-  <si>
-    <t>ATM202111262019</t>
-  </si>
-  <si>
-    <t>ATM202111262019 ATM202111262019</t>
-  </si>
-  <si>
-    <t>rcg+27584700@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584700</t>
-  </si>
-  <si>
-    <t>27584700</t>
-  </si>
-  <si>
-    <t>ATM202111262036</t>
-  </si>
-  <si>
-    <t>ATM202111262036 ATM202111262036</t>
-  </si>
-  <si>
-    <t>rcg+27584701@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584701</t>
-  </si>
-  <si>
-    <t>27584701</t>
-  </si>
-  <si>
-    <t>rcg+27584702@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584702</t>
-  </si>
-  <si>
-    <t>27584702</t>
-  </si>
-  <si>
-    <t>ATM202111262059</t>
-  </si>
-  <si>
-    <t>ATM202111262059 ATM202111262059</t>
-  </si>
-  <si>
-    <t>rcg+27584703@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584703</t>
-  </si>
-  <si>
-    <t>27584703</t>
-  </si>
-  <si>
-    <t>rcg+27584704@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584704</t>
-  </si>
-  <si>
-    <t>27584704</t>
-  </si>
-  <si>
-    <t>ATM202111262134</t>
-  </si>
-  <si>
-    <t>ATM202111262134 ATM202111262134</t>
-  </si>
-  <si>
-    <t>rcg+27584705@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584705</t>
-  </si>
-  <si>
-    <t>27584705</t>
-  </si>
-  <si>
-    <t>ATM202111262150</t>
-  </si>
-  <si>
-    <t>ATM202111262150 ATM202111262150</t>
-  </si>
-  <si>
-    <t>rcg+27584706@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584706</t>
-  </si>
-  <si>
-    <t>27584706</t>
-  </si>
-  <si>
-    <t>rcg+27584707@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584707</t>
-  </si>
-  <si>
-    <t>27584707</t>
-  </si>
-  <si>
-    <t>rcg+27584708@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584708</t>
-  </si>
-  <si>
-    <t>27584708</t>
-  </si>
-  <si>
-    <t>ATM202111262249</t>
-  </si>
-  <si>
-    <t>ATM202111262249 ATM202111262249</t>
-  </si>
-  <si>
-    <t>rcg+27584709@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584709</t>
-  </si>
-  <si>
-    <t>27584709</t>
-  </si>
-  <si>
-    <t>ATM202111262304</t>
-  </si>
-  <si>
-    <t>ATM202111262304 ATM202111262304</t>
-  </si>
-  <si>
-    <t>rcg+27584710@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584710</t>
-  </si>
-  <si>
-    <t>27584710</t>
+    <t>rcg+27584749@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584749</t>
+  </si>
+  <si>
+    <t>27584749</t>
+  </si>
+  <si>
+    <t>73902</t>
+  </si>
+  <si>
+    <t>rcg+27584750@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584750</t>
+  </si>
+  <si>
+    <t>27584750</t>
+  </si>
+  <si>
+    <t>rcg+27584751@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584751</t>
+  </si>
+  <si>
+    <t>27584751</t>
+  </si>
+  <si>
+    <t>73903</t>
+  </si>
+  <si>
+    <t>ATM202112021558</t>
+  </si>
+  <si>
+    <t>ATM202112021558 ATM202112021558</t>
+  </si>
+  <si>
+    <t>rcg+27584752@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584752</t>
+  </si>
+  <si>
+    <t>27584752</t>
+  </si>
+  <si>
+    <t>73904</t>
+  </si>
+  <si>
+    <t>73905</t>
+  </si>
+  <si>
+    <t>rcg+27584756@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584756</t>
+  </si>
+  <si>
+    <t>27584756</t>
+  </si>
+  <si>
+    <t>73949</t>
+  </si>
+  <si>
+    <t>ATM202112021839</t>
+  </si>
+  <si>
+    <t>ATM202112021839 ATM202112021839</t>
+  </si>
+  <si>
+    <t>rcg+27584757@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584757</t>
+  </si>
+  <si>
+    <t>27584757</t>
+  </si>
+  <si>
+    <t>73950</t>
+  </si>
+  <si>
+    <t>ATM202112021855</t>
+  </si>
+  <si>
+    <t>ATM202112021855 ATM202112021855</t>
+  </si>
+  <si>
+    <t>rcg+27584758@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584758</t>
+  </si>
+  <si>
+    <t>27584758</t>
+  </si>
+  <si>
+    <t>73951</t>
+  </si>
+  <si>
+    <t>ATM202112021909</t>
+  </si>
+  <si>
+    <t>ATM202112021909 ATM202112021909</t>
+  </si>
+  <si>
+    <t>rcg+27584759@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584759</t>
+  </si>
+  <si>
+    <t>27584759</t>
+  </si>
+  <si>
+    <t>rcg+27584760@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584760</t>
+  </si>
+  <si>
+    <t>27584760</t>
+  </si>
+  <si>
+    <t>rcg+27584762@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584762</t>
+  </si>
+  <si>
+    <t>27584762</t>
+  </si>
+  <si>
+    <t>73973</t>
+  </si>
+  <si>
+    <t>rcg+27584763@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584763</t>
+  </si>
+  <si>
+    <t>27584763</t>
+  </si>
+  <si>
+    <t>73975</t>
+  </si>
+  <si>
+    <t>ATM202112022254</t>
+  </si>
+  <si>
+    <t>ATM202112022254 ATM202112022254</t>
+  </si>
+  <si>
+    <t>rcg+27584764@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584764</t>
+  </si>
+  <si>
+    <t>27584764</t>
+  </si>
+  <si>
+    <t>73976</t>
+  </si>
+  <si>
+    <t>ATM202112022308</t>
+  </si>
+  <si>
+    <t>ATM202112022308 ATM202112022308</t>
+  </si>
+  <si>
+    <t>rcg+27584765@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584765</t>
+  </si>
+  <si>
+    <t>27584765</t>
+  </si>
+  <si>
+    <t>73977</t>
+  </si>
+  <si>
+    <t>ATM202112022320</t>
+  </si>
+  <si>
+    <t>ATM202112022320 ATM202112022320</t>
+  </si>
+  <si>
+    <t>rcg+27584766@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584766</t>
+  </si>
+  <si>
+    <t>27584766</t>
+  </si>
+  <si>
+    <t>73978</t>
+  </si>
+  <si>
+    <t>ATM202112022334</t>
+  </si>
+  <si>
+    <t>ATM202112022334 ATM202112022334</t>
+  </si>
+  <si>
+    <t>rcg+27584767@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584767</t>
+  </si>
+  <si>
+    <t>27584767</t>
+  </si>
+  <si>
+    <t>73979</t>
+  </si>
+  <si>
+    <t>rcg+27584768@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584768</t>
+  </si>
+  <si>
+    <t>27584768</t>
+  </si>
+  <si>
+    <t>73981</t>
+  </si>
+  <si>
+    <t>ATM202112030035</t>
+  </si>
+  <si>
+    <t>ATM202112030035 ATM202112030035</t>
+  </si>
+  <si>
+    <t>rcg+27584769@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584769</t>
+  </si>
+  <si>
+    <t>27584769</t>
+  </si>
+  <si>
+    <t>73982</t>
+  </si>
+  <si>
+    <t>ATM202112030109</t>
+  </si>
+  <si>
+    <t>ATM202112030109 ATM202112030109</t>
   </si>
 </sst>
 </file>
@@ -921,7 +931,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -931,7 +941,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1236,18 +1245,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="23.75" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="32.83203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1261,192 +1267,199 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16">
-      <c r="A2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="3">
         <v>27583950</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16">
-      <c r="A3" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>188</v>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16">
-      <c r="A6" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>214</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" tooltip="mailto:ABATestAccount@pcci.edu" display="mailto:ABATestAccount@pcci.edu" xr:uid="{CBB1F535-7EFB-D349-AB45-8B58256234AE}"/>
-    <hyperlink ref="A6" r:id="rId2" tooltip="mailto:ABATestAccount@pcci.edu" display="mailto:ABATestAccount@pcci.edu" xr:uid="{172ED60C-25B4-D54C-B33E-5F5EBA95D3CD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="D3:D4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50012846-BBBE-8F49-8572-8B537A72021A}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.94140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="32.83203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.79296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16">
-      <c r="A2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="D2" s="3">
+        <v>27583950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="D4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>195</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>206</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1467,42 +1480,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>46</v>
+      <c r="A1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="13"/>
       <c r="F2">
         <v>1</v>
       </c>
@@ -1512,18 +1525,18 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="13"/>
       <c r="F3">
         <v>1</v>
       </c>
@@ -1533,18 +1546,18 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="13"/>
       <c r="F4">
         <v>1</v>
       </c>
@@ -1554,18 +1567,18 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="13"/>
       <c r="F5">
         <v>1</v>
       </c>
@@ -1575,18 +1588,18 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="14"/>
+      <c r="D6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="13"/>
       <c r="F6">
         <v>1</v>
       </c>
@@ -1596,18 +1609,18 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="13"/>
       <c r="F7">
         <v>1</v>
       </c>
@@ -1617,18 +1630,18 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="13"/>
       <c r="F8">
         <v>1</v>
       </c>
@@ -1638,12 +1651,12 @@
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="13"/>
       <c r="F9">
         <v>1</v>
       </c>
@@ -1653,12 +1666,12 @@
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="13"/>
       <c r="F10">
         <v>1</v>
       </c>
@@ -1676,7 +1689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F814710-126C-F845-8A8F-5D817919A993}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -1688,42 +1701,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>46</v>
+      <c r="A1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="E2" s="13"/>
       <c r="F2">
         <v>1</v>
       </c>
@@ -1733,18 +1746,18 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="E3" s="13"/>
       <c r="F3">
         <v>1</v>
       </c>
@@ -1754,18 +1767,18 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="14"/>
+        <v>50</v>
+      </c>
+      <c r="E4" s="13"/>
       <c r="F4">
         <v>1</v>
       </c>
@@ -1775,18 +1788,18 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="E5" s="13"/>
       <c r="F5">
         <v>1</v>
       </c>
@@ -1796,18 +1809,18 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="E6" s="13"/>
       <c r="F6">
         <v>1</v>
       </c>
@@ -1817,18 +1830,18 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="E7" s="13"/>
       <c r="F7">
         <v>1</v>
       </c>
@@ -1838,18 +1851,18 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="E8" s="13"/>
       <c r="F8">
         <v>1</v>
       </c>
@@ -1859,18 +1872,18 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="E9" s="13"/>
       <c r="F9">
         <v>1</v>
       </c>
@@ -1880,18 +1893,18 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="14"/>
+        <v>46</v>
+      </c>
+      <c r="E10" s="13"/>
       <c r="F10">
         <v>1</v>
       </c>
@@ -1901,46 +1914,46 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>46</v>
+      <c r="A20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="E21" s="13"/>
       <c r="F21">
         <v>1</v>
       </c>
@@ -1950,18 +1963,18 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="E22" s="13"/>
       <c r="F22">
         <v>1</v>
       </c>
@@ -1971,18 +1984,18 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="14"/>
+        <v>50</v>
+      </c>
+      <c r="E23" s="13"/>
       <c r="F23">
         <v>1</v>
       </c>
@@ -1992,18 +2005,18 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="E24" s="13"/>
       <c r="F24">
         <v>1</v>
       </c>
@@ -2013,18 +2026,18 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="E25" s="13"/>
       <c r="F25">
         <v>1</v>
       </c>
@@ -2034,18 +2047,18 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="E26" s="13"/>
       <c r="F26">
         <v>1</v>
       </c>
@@ -2055,18 +2068,18 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="E27" s="13"/>
       <c r="F27">
         <v>1</v>
       </c>
@@ -2076,18 +2089,18 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="E28" s="13"/>
       <c r="F28">
         <v>1</v>
       </c>
@@ -2097,18 +2110,18 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="14"/>
+        <v>46</v>
+      </c>
+      <c r="E29" s="13"/>
       <c r="F29">
         <v>1</v>
       </c>
@@ -2118,51 +2131,51 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2170,19 +2183,19 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2211,42 +2224,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>46</v>
+      <c r="A1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="E2" s="13"/>
       <c r="F2">
         <v>1</v>
       </c>
@@ -2256,18 +2269,18 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="E3" s="13"/>
       <c r="F3">
         <v>1</v>
       </c>
@@ -2277,18 +2290,18 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="E4" s="13"/>
       <c r="F4">
         <v>1</v>
       </c>
@@ -2298,18 +2311,18 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="E5" s="13"/>
       <c r="F5">
         <v>1</v>
       </c>
@@ -2319,18 +2332,18 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="E6" s="13"/>
       <c r="F6">
         <v>1</v>
       </c>
@@ -2339,20 +2352,20 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2375,76 +2388,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
-      <c r="A1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>45</v>
+      <c r="A1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16">
-      <c r="A2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="b">
+      <c r="A2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16">
-      <c r="A3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="b">
+      <c r="A3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16">
-      <c r="A4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="b">
+      <c r="A4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16">
-      <c r="A5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="b">
+      <c r="A5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16">
-      <c r="A6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="b">
+      <c r="A6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2506,123 +2519,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>92</v>
+      <c r="A1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="15">
+      <c r="A2" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="14">
         <v>20210329</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>20210402</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="16">
+      <c r="A3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="15">
         <v>20210531</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>20210531</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="15">
+      <c r="A4" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="14">
         <v>20210705</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>20210705</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="A5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="15">
         <v>20210906</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>20210906</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="A6" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="14">
         <v>20211111</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>20211111</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="A7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="15">
         <v>20211124</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>20211126</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="15">
+      <c r="A8" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="14">
         <v>20211125</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>20211126</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="16">
+      <c r="A9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="15">
         <v>20211220</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>20220104</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="15">
+      <c r="A10" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="14">
         <v>20220117</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>20220117</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" thickBot="1">
-      <c r="A11" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="25">
+      <c r="A11" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="24">
         <v>20220221</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>20220221</v>
       </c>
     </row>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/QA-Automation/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC84DBB6-03A4-CD4D-9856-E715EFE3C5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D618E2A2-93D9-0D4D-A049-BDB9B58C43AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,6 @@
     <sheet name="HolidayList" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="130">
   <si>
     <t>Password</t>
   </si>
@@ -284,9 +283,6 @@
     <t>EventID</t>
   </si>
   <si>
-    <t>event_5079687770440</t>
-  </si>
-  <si>
     <t>PreviewTitle</t>
   </si>
   <si>
@@ -311,285 +307,21 @@
     <t>DayCount</t>
   </si>
   <si>
-    <t>rcg+27584705@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584705</t>
-  </si>
-  <si>
-    <t>27584705</t>
-  </si>
-  <si>
-    <t>rcg+27584708@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584708</t>
-  </si>
-  <si>
-    <t>27584708</t>
-  </si>
-  <si>
     <t>CartNumber</t>
   </si>
   <si>
-    <t>rcg+27584734@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584734</t>
-  </si>
-  <si>
-    <t>27584734</t>
-  </si>
-  <si>
-    <t>rcg+27584739@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584739</t>
-  </si>
-  <si>
-    <t>27584739</t>
-  </si>
-  <si>
-    <t>rcg+27584745@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584745</t>
-  </si>
-  <si>
-    <t>27584745</t>
-  </si>
-  <si>
-    <t>73898</t>
-  </si>
-  <si>
-    <t>ATM202112021358</t>
-  </si>
-  <si>
-    <t>ATM202112021358 ATM202112021358</t>
-  </si>
-  <si>
     <t>Grade 1 - Accredited</t>
   </si>
   <si>
-    <t>rcg+27584746@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584746</t>
-  </si>
-  <si>
-    <t>27584746</t>
-  </si>
-  <si>
-    <t>73899</t>
-  </si>
-  <si>
-    <t>ATM202112021415</t>
-  </si>
-  <si>
-    <t>ATM202112021415 ATM202112021415</t>
-  </si>
-  <si>
     <t>Grade 4 - Accredited</t>
   </si>
   <si>
-    <t>rcg+27584747@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584747</t>
-  </si>
-  <si>
-    <t>27584747</t>
-  </si>
-  <si>
-    <t>73900</t>
-  </si>
-  <si>
-    <t>ATM202112021430</t>
-  </si>
-  <si>
-    <t>ATM202112021430 ATM202112021430</t>
-  </si>
-  <si>
     <t>Grade 9</t>
   </si>
   <si>
-    <t>rcg+27584748@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584748</t>
-  </si>
-  <si>
-    <t>27584748</t>
-  </si>
-  <si>
-    <t>73901</t>
-  </si>
-  <si>
-    <t>ATM202112021446</t>
-  </si>
-  <si>
-    <t>ATM202112021446 ATM202112021446</t>
-  </si>
-  <si>
     <t>Grade 12</t>
   </si>
   <si>
-    <t>rcg+27584749@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584749</t>
-  </si>
-  <si>
-    <t>27584749</t>
-  </si>
-  <si>
-    <t>73902</t>
-  </si>
-  <si>
-    <t>rcg+27584750@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584750</t>
-  </si>
-  <si>
-    <t>27584750</t>
-  </si>
-  <si>
-    <t>rcg+27584751@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584751</t>
-  </si>
-  <si>
-    <t>27584751</t>
-  </si>
-  <si>
-    <t>73903</t>
-  </si>
-  <si>
-    <t>ATM202112021558</t>
-  </si>
-  <si>
-    <t>ATM202112021558 ATM202112021558</t>
-  </si>
-  <si>
-    <t>rcg+27584752@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584752</t>
-  </si>
-  <si>
-    <t>27584752</t>
-  </si>
-  <si>
-    <t>73904</t>
-  </si>
-  <si>
-    <t>73905</t>
-  </si>
-  <si>
-    <t>rcg+27584756@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584756</t>
-  </si>
-  <si>
-    <t>27584756</t>
-  </si>
-  <si>
-    <t>73949</t>
-  </si>
-  <si>
-    <t>ATM202112021839</t>
-  </si>
-  <si>
-    <t>ATM202112021839 ATM202112021839</t>
-  </si>
-  <si>
-    <t>rcg+27584757@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584757</t>
-  </si>
-  <si>
-    <t>27584757</t>
-  </si>
-  <si>
-    <t>73950</t>
-  </si>
-  <si>
-    <t>ATM202112021855</t>
-  </si>
-  <si>
-    <t>ATM202112021855 ATM202112021855</t>
-  </si>
-  <si>
-    <t>rcg+27584758@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584758</t>
-  </si>
-  <si>
-    <t>27584758</t>
-  </si>
-  <si>
-    <t>73951</t>
-  </si>
-  <si>
-    <t>ATM202112021909</t>
-  </si>
-  <si>
-    <t>ATM202112021909 ATM202112021909</t>
-  </si>
-  <si>
-    <t>rcg+27584759@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584759</t>
-  </si>
-  <si>
-    <t>27584759</t>
-  </si>
-  <si>
-    <t>rcg+27584760@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584760</t>
-  </si>
-  <si>
-    <t>27584760</t>
-  </si>
-  <si>
-    <t>rcg+27584762@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584762</t>
-  </si>
-  <si>
-    <t>27584762</t>
-  </si>
-  <si>
-    <t>73973</t>
-  </si>
-  <si>
-    <t>rcg+27584763@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584763</t>
-  </si>
-  <si>
-    <t>27584763</t>
-  </si>
-  <si>
-    <t>73975</t>
-  </si>
-  <si>
-    <t>ATM202112022254</t>
-  </si>
-  <si>
-    <t>ATM202112022254 ATM202112022254</t>
-  </si>
-  <si>
     <t>rcg+27584764@pcci.edu</t>
   </si>
   <si>
@@ -644,36 +376,6 @@
     <t>ATM202112022334 ATM202112022334</t>
   </si>
   <si>
-    <t>rcg+27584767@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584767</t>
-  </si>
-  <si>
-    <t>27584767</t>
-  </si>
-  <si>
-    <t>73979</t>
-  </si>
-  <si>
-    <t>rcg+27584768@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584768</t>
-  </si>
-  <si>
-    <t>27584768</t>
-  </si>
-  <si>
-    <t>73981</t>
-  </si>
-  <si>
-    <t>ATM202112030035</t>
-  </si>
-  <si>
-    <t>ATM202112030035 ATM202112030035</t>
-  </si>
-  <si>
     <t>rcg+27584769@pcci.edu</t>
   </si>
   <si>
@@ -690,6 +392,36 @@
   </si>
   <si>
     <t>ATM202112030109 ATM202112030109</t>
+  </si>
+  <si>
+    <t>event_7771002258369</t>
+  </si>
+  <si>
+    <t>Syed</t>
+  </si>
+  <si>
+    <t>rcg+27584774@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584774</t>
+  </si>
+  <si>
+    <t>27584774</t>
+  </si>
+  <si>
+    <t>74077</t>
+  </si>
+  <si>
+    <t>rcg+27584793@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584793</t>
+  </si>
+  <si>
+    <t>27584793</t>
+  </si>
+  <si>
+    <t>74168</t>
   </si>
 </sst>
 </file>
@@ -1248,12 +980,12 @@
       <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="23.75" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1267,7 +999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1281,60 +1013,60 @@
         <v>27583950</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="16">
       <c r="A3" s="8" t="s">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>214</v>
+        <v>123</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16">
       <c r="A6" s="8" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1347,19 +1079,19 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.79296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1373,10 +1105,10 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1384,78 +1116,78 @@
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="D2" s="3">
         <v>27583950</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="8" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16">
       <c r="A6" s="8" t="s">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1200,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1690,7 +1422,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2160,22 +1892,22 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
         <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" t="s">
         <v>86</v>
-      </c>
-      <c r="E37" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2183,19 +1915,19 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="129">
   <si>
     <t>Password</t>
   </si>
@@ -412,16 +412,13 @@
     <t>74077</t>
   </si>
   <si>
-    <t>rcg+27584793@pcci.edu</t>
-  </si>
-  <si>
-    <t>rcg27584793</t>
-  </si>
-  <si>
-    <t>27584793</t>
-  </si>
-  <si>
-    <t>74168</t>
+    <t>rcg+27584826@pcci.edu</t>
+  </si>
+  <si>
+    <t>rcg27584826</t>
+  </si>
+  <si>
+    <t>27584826</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1133,7 @@
         <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5">
